--- a/document/アプリ企画書.xlsx
+++ b/document/アプリ企画書.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC96993-A168-444A-9304-3EB37FD6547B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13515"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="13520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="アプリ企画書" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>アプリ概要</t>
     <rPh sb="3" eb="5">
@@ -118,29 +119,6 @@
     <t>アプリ企画書</t>
     <rPh sb="3" eb="6">
       <t>キカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>谷　風汰</t>
-    <rPh sb="0" eb="1">
-      <t>タニ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>木村　凱斗</t>
-    <rPh sb="0" eb="2">
-      <t>キムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -287,8 +265,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,7 +504,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -583,7 +567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -640,7 +630,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -713,7 +709,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -786,7 +788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -859,7 +867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -932,7 +946,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1005,7 +1025,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1063,7 +1089,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1380,39 +1412,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:F11"/>
+      <selection activeCell="B5" sqref="B5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1"/>
+    <row r="3" spans="1:6" ht="25.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="10"/>
@@ -1421,96 +1453,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="25.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>11</v>
-      </c>
+      <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
       <c r="E4" s="5"/>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="25.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="5"/>
       <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="25.5" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10"/>
       <c r="E6" s="6"/>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:6" s="2" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="69.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
       <c r="E7" s="6"/>
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:6" s="2" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="69.75" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="6"/>
       <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="6"/>
       <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="69.75" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="6"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="11" spans="1:6" s="2" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="166.5" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
